--- a/data/trans_orig/P14A13-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A13-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25AD3718-34DC-4761-8923-90A4B9F5221E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2DF5082-D93B-4DFB-8198-2FFAE2609A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D881C3FD-688E-4779-B382-8712F48234AA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E09C2160-4E18-4B4A-B006-2E5B76988850}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -75,28 +75,28 @@
     <t>68,79%</t>
   </si>
   <si>
-    <t>60,13%</t>
-  </si>
-  <si>
-    <t>76,02%</t>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>75,67%</t>
   </si>
   <si>
     <t>81,51%</t>
   </si>
   <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
   </si>
   <si>
     <t>77,72%</t>
   </si>
   <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>81,1%</t>
+    <t>74,08%</t>
+  </si>
+  <si>
+    <t>81,18%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>31,21%</t>
   </si>
   <si>
-    <t>23,98%</t>
-  </si>
-  <si>
-    <t>39,87%</t>
+    <t>24,33%</t>
+  </si>
+  <si>
+    <t>38,71%</t>
   </si>
   <si>
     <t>18,49%</t>
   </si>
   <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>23,0%</t>
   </si>
   <si>
     <t>22,28%</t>
   </si>
   <si>
-    <t>18,9%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
+    <t>18,82%</t>
+  </si>
+  <si>
+    <t>25,92%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>56,68%</t>
   </si>
   <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
+    <t>47,73%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
   </si>
   <si>
     <t>70,92%</t>
   </si>
   <si>
-    <t>64,06%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
   </si>
   <si>
     <t>65,79%</t>
   </si>
   <si>
-    <t>59,86%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>70,7%</t>
   </si>
   <si>
     <t>43,32%</t>
   </si>
   <si>
-    <t>34,34%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>52,27%</t>
   </si>
   <si>
     <t>29,08%</t>
   </si>
   <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>35,94%</t>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
   </si>
   <si>
     <t>34,21%</t>
   </si>
   <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>40,14%</t>
+    <t>29,3%</t>
+  </si>
+  <si>
+    <t>39,92%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -195,70 +195,70 @@
     <t>36,11%</t>
   </si>
   <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>59,7%</t>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>60,11%</t>
   </si>
   <si>
     <t>57,92%</t>
   </si>
   <si>
-    <t>41,43%</t>
-  </si>
-  <si>
-    <t>72,4%</t>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
   </si>
   <si>
     <t>51,23%</t>
   </si>
   <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
+    <t>38,64%</t>
+  </si>
+  <si>
+    <t>63,23%</t>
   </si>
   <si>
     <t>63,89%</t>
   </si>
   <si>
-    <t>40,3%</t>
-  </si>
-  <si>
-    <t>82,2%</t>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>82,75%</t>
   </si>
   <si>
     <t>42,08%</t>
   </si>
   <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>58,57%</t>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>56,77%</t>
   </si>
   <si>
     <t>48,77%</t>
   </si>
   <si>
-    <t>37,13%</t>
-  </si>
-  <si>
-    <t>62,22%</t>
+    <t>36,77%</t>
+  </si>
+  <si>
+    <t>61,36%</t>
   </si>
   <si>
     <t>61,17%</t>
   </si>
   <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
+    <t>55,21%</t>
+  </si>
+  <si>
+    <t>66,54%</t>
   </si>
   <si>
     <t>75,79%</t>
   </si>
   <si>
-    <t>72,39%</t>
+    <t>72,3%</t>
   </si>
   <si>
     <t>79,33%</t>
@@ -270,16 +270,16 @@
     <t>68,14%</t>
   </si>
   <si>
-    <t>73,88%</t>
+    <t>74,26%</t>
   </si>
   <si>
     <t>38,83%</t>
   </si>
   <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
+    <t>33,46%</t>
+  </si>
+  <si>
+    <t>44,79%</t>
   </si>
   <si>
     <t>24,21%</t>
@@ -288,13 +288,13 @@
     <t>20,67%</t>
   </si>
   <si>
-    <t>27,61%</t>
+    <t>27,7%</t>
   </si>
   <si>
     <t>28,93%</t>
   </si>
   <si>
-    <t>26,12%</t>
+    <t>25,74%</t>
   </si>
   <si>
     <t>31,86%</t>
@@ -309,217 +309,217 @@
     <t>77,55%</t>
   </si>
   <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
   </si>
   <si>
     <t>84,99%</t>
   </si>
   <si>
-    <t>79,38%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
   </si>
   <si>
     <t>82,71%</t>
   </si>
   <si>
-    <t>78,08%</t>
-  </si>
-  <si>
-    <t>86,62%</t>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
   </si>
   <si>
     <t>22,45%</t>
   </si>
   <si>
-    <t>15,44%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
   </si>
   <si>
     <t>15,01%</t>
   </si>
   <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>20,62%</t>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
   </si>
   <si>
     <t>17,29%</t>
   </si>
   <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>21,92%</t>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
   </si>
   <si>
     <t>68,43%</t>
   </si>
   <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>75,9%</t>
+    <t>59,63%</t>
+  </si>
+  <si>
+    <t>76,06%</t>
   </si>
   <si>
     <t>74,41%</t>
   </si>
   <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>79,55%</t>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>80,09%</t>
   </si>
   <si>
     <t>72,09%</t>
   </si>
   <si>
-    <t>67,18%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
   </si>
   <si>
     <t>31,57%</t>
   </si>
   <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
   </si>
   <si>
     <t>25,59%</t>
   </si>
   <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
+    <t>19,91%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
   </si>
   <si>
     <t>27,91%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>32,82%</t>
+    <t>23,19%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
   </si>
   <si>
     <t>65,29%</t>
   </si>
   <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
+    <t>45,94%</t>
+  </si>
+  <si>
+    <t>81,14%</t>
   </si>
   <si>
     <t>72,59%</t>
   </si>
   <si>
-    <t>55,54%</t>
-  </si>
-  <si>
-    <t>85,04%</t>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
   </si>
   <si>
     <t>69,18%</t>
   </si>
   <si>
-    <t>56,04%</t>
-  </si>
-  <si>
-    <t>78,83%</t>
+    <t>57,25%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
   </si>
   <si>
     <t>34,71%</t>
   </si>
   <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>54,46%</t>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>54,06%</t>
   </si>
   <si>
     <t>27,41%</t>
   </si>
   <si>
-    <t>14,96%</t>
-  </si>
-  <si>
-    <t>44,46%</t>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
   </si>
   <si>
     <t>30,82%</t>
   </si>
   <si>
-    <t>21,17%</t>
-  </si>
-  <si>
-    <t>43,96%</t>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
   </si>
   <si>
     <t>71,32%</t>
   </si>
   <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>76,57%</t>
   </si>
   <si>
     <t>79,12%</t>
   </si>
   <si>
-    <t>75,34%</t>
-  </si>
-  <si>
-    <t>82,94%</t>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>83,22%</t>
   </si>
   <si>
     <t>76,31%</t>
   </si>
   <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
+    <t>73,14%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
   </si>
   <si>
     <t>28,68%</t>
   </si>
   <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
+    <t>23,43%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
   </si>
   <si>
     <t>20,88%</t>
   </si>
   <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
   </si>
   <si>
     <t>23,69%</t>
   </si>
   <si>
-    <t>20,44%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>26,86%</t>
   </si>
 </sst>
 </file>
@@ -931,7 +931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F3FC96-0900-47EB-9A85-75094FB87A80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65AF69B5-1E41-46D3-BA0F-74DDA20D9D36}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1682,7 +1682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6D7C1BD-B03A-4620-BFB6-7042FBE4D582}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88913D3-704F-4C85-A3A5-0397537DF919}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P14A13-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P14A13-Estudios-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D2DF5082-D93B-4DFB-8198-2FFAE2609A03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C4D29B68-7655-482E-8EFE-6144A83FE653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E09C2160-4E18-4B4A-B006-2E5B76988850}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9DA2E1D7-227E-47ED-A0C4-89A7378BAA9B}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -75,28 +75,28 @@
     <t>68,79%</t>
   </si>
   <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>75,67%</t>
+    <t>61,11%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
   </si>
   <si>
     <t>81,51%</t>
   </si>
   <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
   </si>
   <si>
     <t>77,72%</t>
   </si>
   <si>
-    <t>74,08%</t>
-  </si>
-  <si>
-    <t>81,18%</t>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>81,41%</t>
   </si>
   <si>
     <t>No</t>
@@ -105,28 +105,28 @@
     <t>31,21%</t>
   </si>
   <si>
-    <t>24,33%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>38,89%</t>
   </si>
   <si>
     <t>18,49%</t>
   </si>
   <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>23,0%</t>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
   </si>
   <si>
     <t>22,28%</t>
   </si>
   <si>
-    <t>18,82%</t>
-  </si>
-  <si>
-    <t>25,92%</t>
+    <t>18,59%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
   </si>
   <si>
     <t>100%</t>
@@ -138,55 +138,55 @@
     <t>56,68%</t>
   </si>
   <si>
-    <t>47,73%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
+    <t>46,79%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
   </si>
   <si>
     <t>70,92%</t>
   </si>
   <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
   </si>
   <si>
     <t>65,79%</t>
   </si>
   <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>70,7%</t>
+    <t>60,96%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
   </si>
   <si>
     <t>43,32%</t>
   </si>
   <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>52,27%</t>
+    <t>34,69%</t>
+  </si>
+  <si>
+    <t>53,21%</t>
   </si>
   <si>
     <t>29,08%</t>
   </si>
   <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
   </si>
   <si>
     <t>34,21%</t>
   </si>
   <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>39,92%</t>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>39,04%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -195,331 +195,331 @@
     <t>36,11%</t>
   </si>
   <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>60,11%</t>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>60,84%</t>
   </si>
   <si>
     <t>57,92%</t>
   </si>
   <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
+    <t>40,45%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
   </si>
   <si>
     <t>51,23%</t>
   </si>
   <si>
-    <t>38,64%</t>
-  </si>
-  <si>
-    <t>63,23%</t>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>64,08%</t>
   </si>
   <si>
     <t>63,89%</t>
   </si>
   <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>82,75%</t>
+    <t>39,16%</t>
+  </si>
+  <si>
+    <t>83,85%</t>
   </si>
   <si>
     <t>42,08%</t>
   </si>
   <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>59,55%</t>
   </si>
   <si>
     <t>48,77%</t>
   </si>
   <si>
-    <t>36,77%</t>
-  </si>
-  <si>
-    <t>61,36%</t>
+    <t>35,92%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
   </si>
   <si>
     <t>61,17%</t>
   </si>
   <si>
-    <t>55,21%</t>
-  </si>
-  <si>
-    <t>66,54%</t>
+    <t>55,79%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
   </si>
   <si>
     <t>75,79%</t>
   </si>
   <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
   </si>
   <si>
     <t>71,07%</t>
   </si>
   <si>
-    <t>68,14%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
+    <t>67,93%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
   </si>
   <si>
     <t>38,83%</t>
   </si>
   <si>
-    <t>33,46%</t>
-  </si>
-  <si>
-    <t>44,79%</t>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>44,21%</t>
   </si>
   <si>
     <t>24,21%</t>
   </si>
   <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>27,7%</t>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
   </si>
   <si>
     <t>28,93%</t>
   </si>
   <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>31,86%</t>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>32,07%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población que recibe medicación o terapia por dolor de espalda en 2015 (Tasa respuesta: 10,75%)</t>
+    <t>Población que recibe medicación o terapia por dolor de espalda en 2016 (Tasa respuesta: 10,75%)</t>
   </si>
   <si>
     <t>77,55%</t>
   </si>
   <si>
-    <t>68,95%</t>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>82,71%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>86,56%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>31,16%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>17,29%</t>
+  </si>
+  <si>
+    <t>13,44%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>68,43%</t>
+  </si>
+  <si>
+    <t>59,84%</t>
+  </si>
+  <si>
+    <t>75,77%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>67,95%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>72,09%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>76,94%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>40,16%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>27,91%</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>82,73%</t>
+  </si>
+  <si>
+    <t>72,59%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
   </si>
   <si>
     <t>84,77%</t>
   </si>
   <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>79,02%</t>
-  </si>
-  <si>
-    <t>89,4%</t>
-  </si>
-  <si>
-    <t>82,71%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>56,07%</t>
+  </si>
+  <si>
+    <t>79,76%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
   </si>
   <si>
     <t>15,23%</t>
   </si>
   <si>
-    <t>31,05%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>17,29%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>68,43%</t>
-  </si>
-  <si>
-    <t>59,63%</t>
-  </si>
-  <si>
-    <t>76,06%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>80,09%</t>
-  </si>
-  <si>
-    <t>72,09%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>76,81%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>40,37%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>19,91%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>27,91%</t>
-  </si>
-  <si>
-    <t>23,19%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>45,94%</t>
-  </si>
-  <si>
-    <t>81,14%</t>
-  </si>
-  <si>
-    <t>72,59%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>79,92%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>27,41%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
+    <t>44,78%</t>
   </si>
   <si>
     <t>30,82%</t>
   </si>
   <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>42,75%</t>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>43,93%</t>
   </si>
   <si>
     <t>71,32%</t>
   </si>
   <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>76,57%</t>
+    <t>65,21%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
   </si>
   <si>
     <t>79,12%</t>
   </si>
   <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>83,22%</t>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>82,88%</t>
   </si>
   <si>
     <t>76,31%</t>
   </si>
   <si>
-    <t>73,14%</t>
-  </si>
-  <si>
-    <t>79,49%</t>
+    <t>72,69%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
   </si>
   <si>
     <t>28,68%</t>
   </si>
   <si>
-    <t>23,43%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
+    <t>23,38%</t>
+  </si>
+  <si>
+    <t>34,79%</t>
   </si>
   <si>
     <t>20,88%</t>
   </si>
   <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
+    <t>17,12%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
   </si>
   <si>
     <t>23,69%</t>
   </si>
   <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>26,86%</t>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>27,31%</t>
   </si>
 </sst>
 </file>
@@ -931,7 +931,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65AF69B5-1E41-46D3-BA0F-74DDA20D9D36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{573B08FD-9095-42B3-B8B3-BF282C841636}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1082,7 +1082,7 @@
         <v>370</v>
       </c>
       <c r="N4" s="7">
-        <v>396781</v>
+        <v>396782</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1184,7 +1184,7 @@
         <v>478</v>
       </c>
       <c r="N6" s="7">
-        <v>510503</v>
+        <v>510504</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1682,7 +1682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D88913D3-704F-4C85-A3A5-0397537DF919}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4E9BE6B-E01F-479D-AB51-95A5904DB982}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1958,7 +1958,7 @@
         <v>90</v>
       </c>
       <c r="D7" s="7">
-        <v>97834</v>
+        <v>97833</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>107</v>
@@ -2060,7 +2060,7 @@
         <v>132</v>
       </c>
       <c r="D9" s="7">
-        <v>142977</v>
+        <v>142976</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
